--- a/ReporteProyectohilos.xlsx
+++ b/ReporteProyectohilos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josereyes/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josereyes/Documents/CS_UFM/SEMESTRE9/SistemasOperativos/ProyectosOS/Proyecto3OS/ProyectoHilosSO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163FA2B7-9A47-AF45-8AA8-7BB19642B9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD22A29-EFEF-CF46-9B87-ECA3746D6E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="500" yWindow="500" windowWidth="28300" windowHeight="16580" xr2:uid="{AC388098-90C3-0940-B555-6F1E06260FE9}"/>
   </bookViews>
@@ -260,14 +260,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -10377,15 +10377,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>735061</xdr:colOff>
+      <xdr:colOff>712974</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>7441</xdr:rowOff>
+      <xdr:rowOff>173093</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1612516</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>82358</xdr:rowOff>
+      <xdr:colOff>1590429</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>49228</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11056,8 +11056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53098E14-2D23-B44D-8FBC-10B808DC0A91}">
   <dimension ref="B4:AB150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B144" zoomScale="256" workbookViewId="0">
-      <selection activeCell="E150" sqref="E150"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12243,42 +12243,42 @@
       <c r="F115" s="3"/>
     </row>
     <row r="116" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C116" s="15" t="s">
+      <c r="C116" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D116" s="15"/>
-      <c r="E116" s="15"/>
-      <c r="F116" s="15"/>
+      <c r="D116" s="17"/>
+      <c r="E116" s="17"/>
+      <c r="F116" s="17"/>
     </row>
     <row r="117" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C117" s="15"/>
-      <c r="D117" s="15"/>
-      <c r="E117" s="15"/>
-      <c r="F117" s="15"/>
+      <c r="C117" s="17"/>
+      <c r="D117" s="17"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="17"/>
     </row>
     <row r="118" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C118" s="15"/>
-      <c r="D118" s="15"/>
-      <c r="E118" s="15"/>
-      <c r="F118" s="15"/>
+      <c r="C118" s="17"/>
+      <c r="D118" s="17"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="17"/>
     </row>
     <row r="119" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C119" s="15"/>
-      <c r="D119" s="15"/>
-      <c r="E119" s="15"/>
-      <c r="F119" s="15"/>
+      <c r="C119" s="17"/>
+      <c r="D119" s="17"/>
+      <c r="E119" s="17"/>
+      <c r="F119" s="17"/>
     </row>
     <row r="120" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C120" s="15"/>
-      <c r="D120" s="15"/>
-      <c r="E120" s="15"/>
-      <c r="F120" s="15"/>
+      <c r="C120" s="17"/>
+      <c r="D120" s="17"/>
+      <c r="E120" s="17"/>
+      <c r="F120" s="17"/>
     </row>
     <row r="121" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C121" s="15"/>
-      <c r="D121" s="15"/>
-      <c r="E121" s="15"/>
-      <c r="F121" s="15"/>
+      <c r="C121" s="17"/>
+      <c r="D121" s="17"/>
+      <c r="E121" s="17"/>
+      <c r="F121" s="17"/>
     </row>
     <row r="122" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C122" s="13" t="s">
@@ -12355,12 +12355,12 @@
       <c r="F132" s="19"/>
     </row>
     <row r="133" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C133" s="16" t="s">
+      <c r="C133" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D133" s="16"/>
-      <c r="E133" s="16"/>
-      <c r="F133" s="16"/>
+      <c r="D133" s="18"/>
+      <c r="E133" s="18"/>
+      <c r="F133" s="18"/>
     </row>
     <row r="134" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C134" s="19" t="s">
@@ -12383,18 +12383,18 @@
       <c r="F136" s="19"/>
     </row>
     <row r="137" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C137" s="16" t="s">
+      <c r="C137" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D137" s="16"/>
-      <c r="E137" s="16"/>
-      <c r="F137" s="16"/>
+      <c r="D137" s="18"/>
+      <c r="E137" s="18"/>
+      <c r="F137" s="18"/>
     </row>
     <row r="138" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C138" s="15"/>
-      <c r="D138" s="15"/>
-      <c r="E138" s="15"/>
-      <c r="F138" s="15"/>
+      <c r="C138" s="17"/>
+      <c r="D138" s="17"/>
+      <c r="E138" s="17"/>
+      <c r="F138" s="17"/>
     </row>
     <row r="139" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C139" s="3"/>
@@ -12403,18 +12403,18 @@
       <c r="F139" s="3"/>
     </row>
     <row r="140" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C140" s="16" t="s">
+      <c r="C140" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D140" s="16"/>
-      <c r="E140" s="16"/>
-      <c r="F140" s="16"/>
+      <c r="D140" s="18"/>
+      <c r="E140" s="18"/>
+      <c r="F140" s="18"/>
     </row>
     <row r="141" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C141" s="15"/>
-      <c r="D141" s="15"/>
-      <c r="E141" s="15"/>
-      <c r="F141" s="15"/>
+      <c r="C141" s="17"/>
+      <c r="D141" s="17"/>
+      <c r="E141" s="17"/>
+      <c r="F141" s="17"/>
     </row>
     <row r="142" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C142" s="3"/>
@@ -12423,87 +12423,87 @@
       <c r="F142" s="3"/>
     </row>
     <row r="144" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D144" s="17" t="s">
+      <c r="D144" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E144" s="17" t="s">
+      <c r="E144" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="145" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C145" s="17" t="s">
+      <c r="C145" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D145" s="18">
+      <c r="D145" s="16">
         <f>AVERAGE($K$6:$K$15)</f>
         <v>7.3009429931640621</v>
       </c>
-      <c r="E145" s="18">
+      <c r="E145" s="16">
         <f>AVERAGE($L$6:$L$15)</f>
         <v>5.7061299324035657</v>
       </c>
     </row>
     <row r="146" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C146" s="17" t="s">
+      <c r="C146" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D146" s="18">
+      <c r="D146" s="16">
         <f>AVERAGE($D$36:$D$45)</f>
         <v>5.1743886232376086</v>
       </c>
-      <c r="E146" s="18">
+      <c r="E146" s="16">
         <f>AVERAGE($E$36:$E$45)</f>
         <v>5.7749144315719612</v>
       </c>
     </row>
     <row r="148" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C148" s="17" t="s">
+      <c r="C148" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D148" s="18">
+      <c r="D148" s="16">
         <f>D145/D146</f>
         <v>1.4109769336567286</v>
       </c>
-      <c r="E148" s="18">
+      <c r="E148" s="16">
         <f>E145/E146</f>
         <v>0.98808908772875581</v>
       </c>
     </row>
     <row r="149" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C149" s="17" t="s">
+      <c r="C149" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D149" s="18">
+      <c r="D149" s="16">
         <v>2</v>
       </c>
-      <c r="E149" s="18">
+      <c r="E149" s="16">
         <v>2</v>
       </c>
     </row>
     <row r="150" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C150" s="17" t="s">
+      <c r="C150" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D150" s="18">
+      <c r="D150" s="16">
         <f>(1/((2-D148)+(D148/2)))</f>
         <v>0.77249215196247523</v>
       </c>
-      <c r="E150" s="18">
+      <c r="E150" s="16">
         <f>(1/((2-E148)+(E148/2)))</f>
         <v>0.66403026459100178</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C116:F121"/>
+    <mergeCell ref="C123:F127"/>
+    <mergeCell ref="C129:F132"/>
+    <mergeCell ref="C134:F136"/>
     <mergeCell ref="C138:F138"/>
     <mergeCell ref="C141:F141"/>
     <mergeCell ref="C133:F133"/>
     <mergeCell ref="C137:F137"/>
     <mergeCell ref="C140:F140"/>
-    <mergeCell ref="C116:F121"/>
-    <mergeCell ref="C123:F127"/>
-    <mergeCell ref="C129:F132"/>
-    <mergeCell ref="C134:F136"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/ReporteProyectohilos.xlsx
+++ b/ReporteProyectohilos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josereyes/Documents/CS_UFM/SEMESTRE9/SistemasOperativos/ProyectosOS/Proyecto3OS/ProyectoHilosSO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD22A29-EFEF-CF46-9B87-ECA3746D6E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E96C1F-32CC-674A-AA50-F5C080957791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="500" windowWidth="28300" windowHeight="16580" xr2:uid="{AC388098-90C3-0940-B555-6F1E06260FE9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16580" xr2:uid="{AC388098-90C3-0940-B555-6F1E06260FE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
   <si>
     <t>1 CORE - 1 HILO</t>
   </si>
@@ -133,12 +133,18 @@
   <si>
     <t>El factor de mejora de pasar de 1 core - 1 hilo a 2 cores - 2 hilos es de aproximadamente 1.17. Esto significa un speedup modesto.</t>
   </si>
+  <si>
+    <t>LINK REPO:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/joalereyesu/ProyectoHilosSO.git </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -176,6 +182,14 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -241,10 +255,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -265,14 +280,19 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -10377,15 +10397,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>712974</xdr:colOff>
+      <xdr:colOff>724389</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>173093</xdr:rowOff>
+      <xdr:rowOff>82147</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1590429</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>49228</xdr:rowOff>
+      <xdr:colOff>1601844</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>157064</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10413,15 +10433,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>664505</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>199866</xdr:rowOff>
+      <xdr:colOff>643160</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>61127</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1541960</xdr:colOff>
+      <xdr:colOff>1520615</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>69530</xdr:rowOff>
+      <xdr:rowOff>133564</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10449,15 +10469,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>587537</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>199866</xdr:rowOff>
+      <xdr:colOff>566193</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>93144</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>1464991</xdr:colOff>
+      <xdr:colOff>1443647</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>69530</xdr:rowOff>
+      <xdr:rowOff>165581</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10485,15 +10505,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>549051</xdr:colOff>
+      <xdr:colOff>837203</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>33097</xdr:rowOff>
+      <xdr:rowOff>43770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1426506</xdr:colOff>
+      <xdr:colOff>1714658</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>108015</xdr:rowOff>
+      <xdr:rowOff>118688</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10522,14 +10542,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>561880</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>199864</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>125158</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1439335</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>69528</xdr:rowOff>
+      <xdr:rowOff>197595</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10559,13 +10579,13 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>497738</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>7440</xdr:rowOff>
+      <xdr:rowOff>92818</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>1375192</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>82357</xdr:rowOff>
+      <xdr:rowOff>167735</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11054,10 +11074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53098E14-2D23-B44D-8FBC-10B808DC0A91}">
-  <dimension ref="B4:AB150"/>
+  <dimension ref="B2:AB150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11086,6 +11106,14 @@
     <col min="22" max="28" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C2" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="4" spans="2:19" ht="22" x14ac:dyDescent="0.3">
       <c r="C4" s="12" t="s">
         <v>0</v>
@@ -11553,6 +11581,44 @@
         <v>56.557235956192002</v>
       </c>
     </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C17" s="1">
+        <f t="shared" ref="C17:E17" si="3">AVERAGE(C6:C15)</f>
+        <v>5.4693401575088458</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="3"/>
+        <v>5.7853878259658771</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="3"/>
+        <v>5.733621478080746</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" ref="J17:L17" si="4">AVERAGE(J6:J15)</f>
+        <v>5.6424304485321057</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="4"/>
+        <v>7.3009429931640621</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="4"/>
+        <v>5.7061299324035657</v>
+      </c>
+      <c r="Q17" s="1">
+        <f t="shared" ref="Q17:S17" si="5">AVERAGE(Q6:Q15)</f>
+        <v>5.5220041751861588</v>
+      </c>
+      <c r="R17" s="1">
+        <f t="shared" si="5"/>
+        <v>4.9512777090072628</v>
+      </c>
+      <c r="S17" s="1">
+        <f t="shared" si="5"/>
+        <v>5.6557235956192002</v>
+      </c>
+    </row>
     <row r="34" spans="2:19" ht="22" x14ac:dyDescent="0.3">
       <c r="C34" s="12" t="s">
         <v>6</v>
@@ -11982,11 +12048,11 @@
         <v>55.610340833663926</v>
       </c>
       <c r="D46" s="7">
-        <f t="shared" ref="D46:E46" si="3">SUM(D36:D45)</f>
+        <f t="shared" ref="D46:E46" si="6">SUM(D36:D45)</f>
         <v>51.743886232376084</v>
       </c>
       <c r="E46" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>57.749144315719612</v>
       </c>
       <c r="I46" s="6" t="s">
@@ -11997,11 +12063,11 @@
         <v>57.119577169418349</v>
       </c>
       <c r="K46" s="7">
-        <f t="shared" ref="K46:L46" si="4">SUM(K36:K45)</f>
+        <f t="shared" ref="K46:L46" si="7">SUM(K36:K45)</f>
         <v>52.558137178421035</v>
       </c>
       <c r="L46" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>58.638959169387839</v>
       </c>
       <c r="P46" s="6" t="s">
@@ -12012,12 +12078,50 @@
         <v>55.359425783157363</v>
       </c>
       <c r="R46" s="7">
-        <f t="shared" ref="R46:S46" si="5">SUM(R36:R45)</f>
+        <f t="shared" ref="R46:S46" si="8">SUM(R36:R45)</f>
         <v>52.46131896972657</v>
       </c>
       <c r="S46" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>56.880913019180305</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C47" s="1">
+        <f>AVERAGE(C36:C45)</f>
+        <v>5.5610340833663923</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" ref="D47:E47" si="9">AVERAGE(D36:D45)</f>
+        <v>5.1743886232376086</v>
+      </c>
+      <c r="E47" s="1">
+        <f t="shared" si="9"/>
+        <v>5.7749144315719612</v>
+      </c>
+      <c r="J47" s="1">
+        <f t="shared" ref="J47:L47" si="10">AVERAGE(J36:J45)</f>
+        <v>5.7119577169418347</v>
+      </c>
+      <c r="K47" s="1">
+        <f t="shared" si="10"/>
+        <v>5.2558137178421038</v>
+      </c>
+      <c r="L47" s="1">
+        <f t="shared" si="10"/>
+        <v>5.8638959169387839</v>
+      </c>
+      <c r="Q47" s="1">
+        <f t="shared" ref="Q47:S47" si="11">AVERAGE(Q36:Q45)</f>
+        <v>5.5359425783157361</v>
+      </c>
+      <c r="R47" s="1">
+        <f t="shared" si="11"/>
+        <v>5.2461318969726571</v>
+      </c>
+      <c r="S47" s="1">
+        <f t="shared" si="11"/>
+        <v>5.6880913019180301</v>
       </c>
     </row>
     <row r="62" spans="3:10" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12044,7 +12148,7 @@
         <v>54.693401575088458</v>
       </c>
       <c r="J66" s="8" t="str">
-        <f t="shared" ref="J66:J71" si="6">C66</f>
+        <f t="shared" ref="J66:J71" si="12">C66</f>
         <v>1 CORE - 1 HILO</v>
       </c>
       <c r="K66" s="9">
@@ -12062,7 +12166,7 @@
         <v>56.424304485321059</v>
       </c>
       <c r="J67" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1 CORE - 4 HILOS</v>
       </c>
       <c r="K67" s="11">
@@ -12080,7 +12184,7 @@
         <v>55.220041751861586</v>
       </c>
       <c r="J68" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>2 CORES - 2 HILOS</v>
       </c>
       <c r="K68" s="9">
@@ -12098,7 +12202,7 @@
         <v>55.610340833663926</v>
       </c>
       <c r="J69" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>2 CORE - 4 HILOS</v>
       </c>
       <c r="K69" s="11">
@@ -12116,7 +12220,7 @@
         <v>57.119577169418349</v>
       </c>
       <c r="J70" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>2 CORE - 8 HILOS</v>
       </c>
       <c r="K70" s="9">
@@ -12138,7 +12242,7 @@
         <v>334.42709159851074</v>
       </c>
       <c r="J71" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>4 CORE - 8 HILOS</v>
       </c>
       <c r="K71" s="11">
@@ -12176,7 +12280,7 @@
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C92" s="10" t="str">
-        <f t="shared" ref="C92:C96" si="7">C67</f>
+        <f t="shared" ref="C92:C96" si="13">C67</f>
         <v>1 CORE - 4 HILOS</v>
       </c>
       <c r="D92" s="11">
@@ -12186,7 +12290,7 @@
     </row>
     <row r="93" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C93" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2 CORES - 2 HILOS</v>
       </c>
       <c r="D93" s="9">
@@ -12196,7 +12300,7 @@
     </row>
     <row r="94" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C94" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2 CORE - 4 HILOS</v>
       </c>
       <c r="D94" s="11">
@@ -12206,7 +12310,7 @@
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C95" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2 CORE - 8 HILOS</v>
       </c>
       <c r="D95" s="9">
@@ -12216,7 +12320,7 @@
     </row>
     <row r="96" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C96" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>4 CORE - 8 HILOS</v>
       </c>
       <c r="D96" s="11">
@@ -12289,36 +12393,36 @@
       <c r="F122" s="3"/>
     </row>
     <row r="123" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C123" s="19" t="s">
+      <c r="C123" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D123" s="19"/>
-      <c r="E123" s="19"/>
-      <c r="F123" s="19"/>
+      <c r="D123" s="18"/>
+      <c r="E123" s="18"/>
+      <c r="F123" s="18"/>
     </row>
     <row r="124" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C124" s="19"/>
-      <c r="D124" s="19"/>
-      <c r="E124" s="19"/>
-      <c r="F124" s="19"/>
+      <c r="C124" s="18"/>
+      <c r="D124" s="18"/>
+      <c r="E124" s="18"/>
+      <c r="F124" s="18"/>
     </row>
     <row r="125" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C125" s="19"/>
-      <c r="D125" s="19"/>
-      <c r="E125" s="19"/>
-      <c r="F125" s="19"/>
+      <c r="C125" s="18"/>
+      <c r="D125" s="18"/>
+      <c r="E125" s="18"/>
+      <c r="F125" s="18"/>
     </row>
     <row r="126" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C126" s="19"/>
-      <c r="D126" s="19"/>
-      <c r="E126" s="19"/>
-      <c r="F126" s="19"/>
+      <c r="C126" s="18"/>
+      <c r="D126" s="18"/>
+      <c r="E126" s="18"/>
+      <c r="F126" s="18"/>
     </row>
     <row r="127" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C127" s="19"/>
-      <c r="D127" s="19"/>
-      <c r="E127" s="19"/>
-      <c r="F127" s="19"/>
+      <c r="C127" s="18"/>
+      <c r="D127" s="18"/>
+      <c r="E127" s="18"/>
+      <c r="F127" s="18"/>
     </row>
     <row r="128" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C128" s="13" t="s">
@@ -12329,66 +12433,66 @@
       <c r="F128" s="3"/>
     </row>
     <row r="129" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C129" s="19" t="s">
+      <c r="C129" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D129" s="19"/>
-      <c r="E129" s="19"/>
-      <c r="F129" s="19"/>
+      <c r="D129" s="18"/>
+      <c r="E129" s="18"/>
+      <c r="F129" s="18"/>
     </row>
     <row r="130" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C130" s="19"/>
-      <c r="D130" s="19"/>
-      <c r="E130" s="19"/>
-      <c r="F130" s="19"/>
+      <c r="C130" s="18"/>
+      <c r="D130" s="18"/>
+      <c r="E130" s="18"/>
+      <c r="F130" s="18"/>
     </row>
     <row r="131" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C131" s="19"/>
-      <c r="D131" s="19"/>
-      <c r="E131" s="19"/>
-      <c r="F131" s="19"/>
+      <c r="C131" s="18"/>
+      <c r="D131" s="18"/>
+      <c r="E131" s="18"/>
+      <c r="F131" s="18"/>
     </row>
     <row r="132" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C132" s="19"/>
-      <c r="D132" s="19"/>
-      <c r="E132" s="19"/>
-      <c r="F132" s="19"/>
+      <c r="C132" s="18"/>
+      <c r="D132" s="18"/>
+      <c r="E132" s="18"/>
+      <c r="F132" s="18"/>
     </row>
     <row r="133" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C133" s="18" t="s">
+      <c r="C133" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D133" s="18"/>
-      <c r="E133" s="18"/>
-      <c r="F133" s="18"/>
+      <c r="D133" s="19"/>
+      <c r="E133" s="19"/>
+      <c r="F133" s="19"/>
     </row>
     <row r="134" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C134" s="19" t="s">
+      <c r="C134" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D134" s="19"/>
-      <c r="E134" s="19"/>
-      <c r="F134" s="19"/>
+      <c r="D134" s="18"/>
+      <c r="E134" s="18"/>
+      <c r="F134" s="18"/>
     </row>
     <row r="135" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C135" s="19"/>
-      <c r="D135" s="19"/>
-      <c r="E135" s="19"/>
-      <c r="F135" s="19"/>
+      <c r="C135" s="18"/>
+      <c r="D135" s="18"/>
+      <c r="E135" s="18"/>
+      <c r="F135" s="18"/>
     </row>
     <row r="136" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C136" s="19"/>
-      <c r="D136" s="19"/>
-      <c r="E136" s="19"/>
-      <c r="F136" s="19"/>
+      <c r="C136" s="18"/>
+      <c r="D136" s="18"/>
+      <c r="E136" s="18"/>
+      <c r="F136" s="18"/>
     </row>
     <row r="137" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C137" s="18" t="s">
+      <c r="C137" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D137" s="18"/>
-      <c r="E137" s="18"/>
-      <c r="F137" s="18"/>
+      <c r="D137" s="19"/>
+      <c r="E137" s="19"/>
+      <c r="F137" s="19"/>
     </row>
     <row r="138" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C138" s="17"/>
@@ -12403,12 +12507,12 @@
       <c r="F139" s="3"/>
     </row>
     <row r="140" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C140" s="18" t="s">
+      <c r="C140" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D140" s="18"/>
-      <c r="E140" s="18"/>
-      <c r="F140" s="18"/>
+      <c r="D140" s="19"/>
+      <c r="E140" s="19"/>
+      <c r="F140" s="19"/>
     </row>
     <row r="141" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C141" s="17"/>
@@ -12430,7 +12534,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="145" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C145" s="15" t="s">
         <v>4</v>
       </c>
@@ -12443,33 +12547,37 @@
         <v>5.7061299324035657</v>
       </c>
     </row>
-    <row r="146" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C146" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D146" s="16">
-        <f>AVERAGE($D$36:$D$45)</f>
-        <v>5.1743886232376086</v>
+        <f>R17</f>
+        <v>4.9512777090072628</v>
       </c>
       <c r="E146" s="16">
-        <f>AVERAGE($E$36:$E$45)</f>
-        <v>5.7749144315719612</v>
+        <f>S17</f>
+        <v>5.6557235956192002</v>
       </c>
     </row>
-    <row r="148" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C148" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D148" s="16">
         <f>D145/D146</f>
-        <v>1.4109769336567286</v>
+        <v>1.4745573612003899</v>
       </c>
       <c r="E148" s="16">
         <f>E145/E146</f>
-        <v>0.98808908772875581</v>
+        <v>1.0089124469985431</v>
+      </c>
+      <c r="F148" s="1">
+        <f>D146/D145</f>
+        <v>0.67816961639656526</v>
       </c>
     </row>
-    <row r="149" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C149" s="15" t="s">
         <v>27</v>
       </c>
@@ -12479,33 +12587,44 @@
       <c r="E149" s="16">
         <v>2</v>
       </c>
+      <c r="F149" s="1">
+        <f>D145-D146</f>
+        <v>2.3496652841567993</v>
+      </c>
     </row>
-    <row r="150" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C150" s="15" t="s">
         <v>26</v>
       </c>
       <c r="D150" s="16">
         <f>(1/((2-D148)+(D148/2)))</f>
-        <v>0.77249215196247523</v>
+        <v>0.79194037879658086</v>
       </c>
       <c r="E150" s="16">
         <f>(1/((2-E148)+(E148/2)))</f>
-        <v>0.66403026459100178</v>
+        <v>0.66865311180646203</v>
+      </c>
+      <c r="F150" s="1">
+        <f>F149/D145</f>
+        <v>0.32183038360343474</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C141:F141"/>
+    <mergeCell ref="C133:F133"/>
+    <mergeCell ref="C137:F137"/>
+    <mergeCell ref="C140:F140"/>
     <mergeCell ref="C116:F121"/>
     <mergeCell ref="C123:F127"/>
     <mergeCell ref="C129:F132"/>
     <mergeCell ref="C134:F136"/>
     <mergeCell ref="C138:F138"/>
-    <mergeCell ref="C141:F141"/>
-    <mergeCell ref="C133:F133"/>
-    <mergeCell ref="C137:F137"/>
-    <mergeCell ref="C140:F140"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{745F6098-A74F-EE47-918C-D1B36AA8787E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>